--- a/Doors.xlsx
+++ b/Doors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db78dccc7c7cd268/99_BIERZACE/3_SZKOLENIA/Python in BIM/Python in BIM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8098697C-833F-423C-9373-DAD372370F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8098697C-833F-423C-9373-DAD372370F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0BD75B5-E764-432F-8BFF-DC2669A11890}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="189">
   <si>
     <t>EntityId</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>112</t>
+  </si>
+  <si>
+    <t>aaaa</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1008,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1206,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>19</v>
